--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_36.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2465228.048877988</v>
+        <v>2530830.804765418</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484441</v>
+        <v>278692.0725916857</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5145435.028678224</v>
+        <v>5201090.558293623</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>349.3178942517237</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -671,7 +671,7 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>286.2721000371766</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -801,7 +801,7 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X3" t="n">
-        <v>153.3187614035089</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
         <v>125.2209214285714</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>41.26176538196644</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>173.5591556145158</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +899,13 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>363.9731463221481</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -959,7 +959,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>267.1908118586813</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1054,19 +1054,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>159.5828560759984</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>134.7702718712086</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1133,25 +1133,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>332.4291174559667</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>47.31231422130926</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>136.0564930766995</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1345,7 +1345,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>152.355512532834</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>219.4201062858565</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1534,7 +1534,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735226066</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.133574646794386</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>244.2412197366698</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1765,7 +1765,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1774,13 +1774,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>63.51633119328227</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1813,13 +1813,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>79.91587893911236</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1828,7 +1828,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199178</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1856,7 +1856,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>218.9887234481296</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -2002,7 +2002,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>10.04027365719993</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>5.990622819018409</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2059,7 +2059,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>22.56919457453901</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2375,7 +2375,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655279</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>148.8597651552996</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2536,7 +2536,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225747</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>131.9969996527472</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>41.94061297377375</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3199,7 +3199,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225785</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3433,13 +3433,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>35.34780583513565</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068452</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3676,7 +3676,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>222.6988144892041</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3727,7 +3727,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>333.9727521751014</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>120.1838601509832</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3913,7 +3913,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -3955,7 +3955,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>75.86622810093093</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3986,7 +3986,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>155.5776225602616</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -4028,7 +4028,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>5.990622819018747</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,13 +4186,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.640221925911</v>
+        <v>153.4764845146214</v>
       </c>
       <c r="C2" t="n">
-        <v>408.5381531497383</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
-        <v>376.6687723645869</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>346.9344315632861</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>323.1074060128979</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4328,22 +4328,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4364,16 +4364,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1333.751429465681</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>914.6089660449919</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.9397924108188</v>
+        <v>506.3228423446453</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,25 +4395,25 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="M3" t="n">
         <v>319.8519551513677</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>760.5269815952424</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>587.9652700784674</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>422.0872772799901</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>252.3292735307273</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>75.62221949248354</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>75.62221949248354</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>75.62221949248354</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W4" t="n">
-        <v>1425.157025666709</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X4" t="n">
-        <v>1179.765271000121</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="Y4" t="n">
-        <v>952.3456003142296</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>888.1040799405455</v>
+        <v>978.4627999561583</v>
       </c>
       <c r="C5" t="n">
-        <v>854.0020111643728</v>
+        <v>944.3607311799856</v>
       </c>
       <c r="D5" t="n">
-        <v>425.4203369016411</v>
+        <v>912.4913503948342</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>478.7166055531293</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>102.8181913809225</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>102.8181913809225</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>102.8181913809225</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>726.9189754257009</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1351.019759470479</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1351.019759470479</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1975.120543515258</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2301.552102346891</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2042.329799663908</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>1679.712849597734</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>1274.857395008768</v>
       </c>
       <c r="X5" t="n">
-        <v>914.6089660449918</v>
+        <v>1004.967686060605</v>
       </c>
       <c r="Y5" t="n">
-        <v>910.3632463850493</v>
+        <v>1000.721966400662</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>431.6596472970923</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>431.6596472970923</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>431.6596472970923</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>431.6596472970923</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>431.6596472970923</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>195.1384727187784</v>
+        <v>871.4687364409315</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>698.9070249241564</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>533.0290321256791</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>363.2710283764164</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>186.5639743381726</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>266.2978593068783</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>684.5077410748394</v>
       </c>
       <c r="M7" t="n">
-        <v>815.3347072823371</v>
+        <v>1143.991608255752</v>
       </c>
       <c r="N7" t="n">
-        <v>1235.38760622724</v>
+        <v>1586.250411413397</v>
       </c>
       <c r="O7" t="n">
-        <v>1235.38760622724</v>
+        <v>2005.919660639178</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.42655460952</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.960139477221</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="V7" t="n">
-        <v>1131.794921203953</v>
+        <v>1808.125184926106</v>
       </c>
       <c r="W7" t="n">
-        <v>859.7685167902448</v>
+        <v>1536.098780512398</v>
       </c>
       <c r="X7" t="n">
-        <v>614.3767621236573</v>
+        <v>1290.70702584581</v>
       </c>
       <c r="Y7" t="n">
-        <v>386.9570914377655</v>
+        <v>1063.287355159919</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1654.761434047123</v>
+        <v>2190.910269352854</v>
       </c>
       <c r="C8" t="n">
-        <v>1318.974446717864</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D8" t="n">
-        <v>890.3927724551322</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>461.8110981924006</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>2621.455559497704</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>2213.169435797357</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8519551513677</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>1041.328054693135</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>868.76634317636</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>702.8883503778827</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>533.1303466286199</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>356.4232925903761</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>190.8320176162038</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>120.5233537662982</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>540.5762527112014</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>960.6291516561047</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1380.298400881886</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="V10" t="n">
-        <v>705.2562847857771</v>
+        <v>1977.98450317831</v>
       </c>
       <c r="W10" t="n">
-        <v>433.2298803720686</v>
+        <v>1705.958098764602</v>
       </c>
       <c r="X10" t="n">
-        <v>187.8381257054811</v>
+        <v>1460.566344098014</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.94366860160834</v>
+        <v>1233.146673412122</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>96.7359766811152</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L11" t="n">
-        <v>96.7359766811152</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M11" t="n">
-        <v>1253.783811891666</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N11" t="n">
-        <v>2379.514795328113</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3359.694461898419</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4188.004336731816</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4734.50312269041</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.79883405576</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.79883405576</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4616.7316069288</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4357.509304245817</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3994.892354179643</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3590.036899590676</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3170.894436169987</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.257965174172</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>96.7359766811152</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>96.7359766811152</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>96.7359766811152</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>96.7359766811152</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>96.7359766811152</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>96.7359766811152</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3408549543107</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1006.036133543734</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>833.4744220269589</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>667.5964292284815</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>667.5964292284815</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>490.8893751902377</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2981002160653</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064399</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955482</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289286</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.736396587283</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2286.856950165738</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2008.423949418843</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1721.468441289274</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1449.442036875566</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.050282208978</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1197.854752262721</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2336.308741984732</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>1898.166269168155</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1462.2564843426</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>386.282920610759</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>97.1527660539752</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I14" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>96.7359766811152</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="K14" t="n">
-        <v>96.7359766811152</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L14" t="n">
-        <v>96.7359766811152</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M14" t="n">
-        <v>1186.92545850396</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940407</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510714</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344109</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302704</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.79883405576</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.79883405576</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928799</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245816</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3994.892354179642</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3590.036899590676</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3170.894436169986</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2762.60831246964</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>96.7359766811152</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>96.7359766811152</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>96.7359766811152</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>96.7359766811152</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>96.7359766811152</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>96.7359766811152</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3408549543107</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>863.330251466596</v>
+        <v>1068.769857140662</v>
       </c>
       <c r="C16" t="n">
-        <v>863.330251466596</v>
+        <v>896.2081456238869</v>
       </c>
       <c r="D16" t="n">
-        <v>697.4522586681187</v>
+        <v>730.3301528254096</v>
       </c>
       <c r="E16" t="n">
-        <v>527.694254918856</v>
+        <v>560.5721490761468</v>
       </c>
       <c r="F16" t="n">
-        <v>350.9872008806122</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>185.3959259064399</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289287</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2611.25465524978</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2365.375208828235</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2086.94220808134</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V16" t="n">
-        <v>1799.986699951771</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W16" t="n">
-        <v>1527.960295538062</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X16" t="n">
-        <v>1282.568540871475</v>
+        <v>1488.008146545541</v>
       </c>
       <c r="Y16" t="n">
-        <v>1055.148870185583</v>
+        <v>1260.588475859649</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.02545518133</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>1906.882982364753</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1470.973197539198</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1037.198452697493</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>609.3310231067006</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510142</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423044</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137045</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>98.58334842137045</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>98.58334842137045</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>122.2462103061711</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M17" t="n">
-        <v>1279.294045516722</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N17" t="n">
-        <v>2405.025028953169</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523475</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356871</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315466</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068522</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252359</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125398</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442415</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376241</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787274</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366584</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.325025666238</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126632</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493055</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958588</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228125</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389741</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.319000605158</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137045</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>98.58334842137045</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>98.58334842137045</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>98.58334842137045</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>98.58334842137045</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>98.58334842137045</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>98.58334842137045</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>284.188226694566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173764</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.823109900179</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348562</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679164</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679132</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132056</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924263</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>786.6593645443547</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C19" t="n">
-        <v>776.5176739815267</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D19" t="n">
-        <v>610.6396811830493</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E19" t="n">
-        <v>440.8816774337866</v>
+        <v>590.5124777534459</v>
       </c>
       <c r="F19" t="n">
-        <v>264.1746233955428</v>
+        <v>413.8054237152021</v>
       </c>
       <c r="G19" t="n">
-        <v>98.58334842137045</v>
+        <v>248.2141487410298</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137045</v>
+        <v>108.3119744314043</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137045</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860603</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571959</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251569</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489496</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459838</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.24295832417</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2693.825137029542</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2534.583768327539</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2288.704321905994</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2010.271321159099</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.31581302953</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W19" t="n">
-        <v>1451.289408615821</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.897653949234</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y19" t="n">
-        <v>978.4779832633419</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5826,25 +5826,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>949.5782250957673</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>777.0165135789922</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420841</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928213</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2451.623182457407</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2173.190181710512</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1614.208269167234</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,52 +5975,52 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771598</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004237</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
-        <v>102.2608402707799</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707799</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707799</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>306.1208027766452</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.168637987196</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423643</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993949</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.389162827345</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.88794878594</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538997</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722834</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595872</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912889</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
         <v>4187.483659846699</v>
@@ -6042,64 +6042,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620727</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>501.976124098715</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>406.8858352452683</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>312.765420572222</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883836</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545675</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707799</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707799</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707799</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707799</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707799</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707799</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707799</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439754</v>
+        <v>426.819165236992</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023174</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749589</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197972</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.866520528574</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528542</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
         <v>1196.412455590541</v>
@@ -6108,10 +6108,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626151</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418359</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405615</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420842</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928215</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545778</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804054</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707799</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707799</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354698</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066054</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745665</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
         <v>1783.551532113124</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2568.557051026812</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2322.677604605267</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.244603858372</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1757.289095728803</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.477670376324</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,10 +6224,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>306.120802776629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>306.120802776629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
         <v>306.120802776629</v>
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6418,7 +6418,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
         <v>1617.386921419177</v>
@@ -6467,22 +6467,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>306.120802776629</v>
+        <v>1021.773653488281</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
         <v>190.9207894961043</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2538.261260176948</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="32">
@@ -6704,22 +6704,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>306.120802776629</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,25 +6774,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477105</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6935,13 +6935,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>388.1086717343205</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>388.1086717343205</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>1463.16863798718</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
         <v>1463.16863798718</v>
@@ -6980,7 +6980,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.754677688392</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716169</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731396</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238769</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>303.5569696238769</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>137.9656946497045</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7129,16 +7129,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7217,7 +7217,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050032</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2088.851337586189</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1801.89582945662</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1529.869425042911</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1284.477670376324</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.477670376324</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2436.531460639026</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1998.388987822449</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1562.479202996893</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1128.704458155188</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>791.3582438369042</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>389.9604124601681</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033843</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305243</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>100.4134685305243</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>100.4134685305243</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>213.7522157638655</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M41" t="n">
-        <v>1370.800050974416</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410863</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.71070098117</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814566</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.51936177316</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526217</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710054</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583092</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4457.732022900109</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4095.115072833935</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3690.259618244969</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3271.11715482428</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2862.831031123933</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218171</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584594</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050127</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319664</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.534210448128</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143119</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305243</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>100.4134685305243</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>100.4134685305243</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>100.4134685305243</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>100.4134685305243</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>100.4134685305243</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>100.4134685305243</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>286.0183468037196</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282918</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788318</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223595</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015802</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1179.471629142406</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C43" t="n">
-        <v>1006.909917625631</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D43" t="n">
-        <v>841.0319248271533</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E43" t="n">
-        <v>671.2739210778906</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F43" t="n">
-        <v>494.5668670396468</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654745</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H43" t="n">
-        <v>189.073417755849</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305243</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952142</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663498</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343107</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215224</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.37340959865</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568992</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2471.193632011779</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2192.760631264885</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>2116.128077627581</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1844.101673213872</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1598.709918547285</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>1371.290247861393</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2252.656868168565</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1814.514395351988</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1378.604610526434</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>944.8298656847289</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.680751987495</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397513</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>96.73597668111513</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M44" t="n">
-        <v>1253.783811891666</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N44" t="n">
-        <v>2379.514795328113</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3359.694461898419</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4188.004336731816</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.6447693027</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055757</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239594</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112632</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4273.857430429649</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.240480363475</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3506.385025774508</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3087.242562353819</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2678.956438653473</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.9077216724079</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090502</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>96.73597668111513</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>96.73597668111513</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>96.73597668111513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>96.73597668111513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>96.73597668111513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>96.73597668111513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3408549543107</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729503</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.211622752171</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1093.185322228297</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>920.6236107115219</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>754.7456179130447</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>584.9876141637819</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>408.2805601255382</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6892851513656</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>102.7871108417401</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2554.154217881911</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2308.274771460367</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2029.841770713472</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>2029.841770713472</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1757.815366299763</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1512.423611633176</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1285.003940947284</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8052,10 +8052,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8143,19 +8143,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>52.91495433479339</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8222,22 +8222,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,13 +8289,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>358.7510985324825</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,22 +8374,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>130.5917045986984</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>296.5687363523682</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8468,10 +8468,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,10 +8526,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,22 +8611,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M11" t="n">
         <v>1168.735187081365</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>103.329001379142</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1101.201496790753</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>23.90188069171788</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463286</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9714,7 +9714,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>205.9191540463125</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>928.8008214318197</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10130,10 +10130,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>-5.871232860595138e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10361,16 +10361,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>832.9621348837863</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>288.735183296506</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>114.483583063981</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11315,7 +11315,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>484.4852854251358</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>184.7831561774866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>3.146865729421176</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>219.0118993322384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>185.195777656618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>111.4236523045791</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>77.73307607587094</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>178.3951296148392</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>160.7958207444074</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>81.782726914053</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>141.6500182959535</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>8.789189859683717</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,22 +24883,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>143.6516710866785</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>227.3655273957976</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627254</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,13 +25321,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>103.1553467313936</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,13 +25597,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>52.94985625022159</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>89.61600311978293</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>69.71657238081409</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>268.0111327346227</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>81.78272691405266</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,13 +26074,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>429695.3132759252</v>
+        <v>447828.9465167496</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>429695.3132759252</v>
+        <v>447828.9465167496</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>435758.7320470095</v>
+        <v>447828.9465167494</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>441765.527745665</v>
+        <v>447828.9465167494</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>429695.3132759249</v>
+        <v>447828.9465167494</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>482532.5879013676</v>
+        <v>482532.5879013675</v>
       </c>
       <c r="C2" t="n">
         <v>482532.5879013677</v>
       </c>
       <c r="D2" t="n">
-        <v>482532.5879013677</v>
+        <v>482532.5879013675</v>
       </c>
       <c r="E2" t="n">
-        <v>454971.5081745088</v>
+        <v>474171.8257236171</v>
       </c>
       <c r="F2" t="n">
-        <v>454971.5081745089</v>
+        <v>474171.825723617</v>
       </c>
       <c r="G2" t="n">
-        <v>461391.5986380099</v>
+        <v>474171.8257236171</v>
       </c>
       <c r="H2" t="n">
         <v>474171.825723617</v>
       </c>
       <c r="I2" t="n">
-        <v>474171.8257236169</v>
+        <v>474171.825723617</v>
       </c>
       <c r="J2" t="n">
         <v>474171.825723617</v>
@@ -26344,16 +26344,16 @@
         <v>474171.825723617</v>
       </c>
       <c r="M2" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236169</v>
       </c>
       <c r="N2" t="n">
         <v>474171.825723617</v>
       </c>
       <c r="O2" t="n">
-        <v>467751.7352601158</v>
+        <v>474171.825723617</v>
       </c>
       <c r="P2" t="n">
-        <v>454971.5081745087</v>
+        <v>474171.825723617</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.767895016</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998292</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220375</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.21104284834</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996552</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.027878397508175e-09</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449892</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877239</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622436</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830678</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,25 +26418,25 @@
         <v>169168.0932697598</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>121997.563797094</v>
       </c>
       <c r="D4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>773.6821211687734</v>
+        <v>806.3323907826025</v>
       </c>
       <c r="F4" t="n">
-        <v>773.6821211687734</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="G4" t="n">
-        <v>784.5995283440636</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
+        <v>806.3323907825584</v>
+      </c>
+      <c r="I4" t="n">
         <v>806.3323907826023</v>
-      </c>
-      <c r="I4" t="n">
-        <v>806.3323907818678</v>
       </c>
       <c r="J4" t="n">
         <v>806.3323907826023</v>
@@ -26445,7 +26445,7 @@
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="M4" t="n">
         <v>806.3323907826023</v>
@@ -26454,10 +26454,10 @@
         <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>795.4149836073118</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="P4" t="n">
-        <v>773.6821211687729</v>
+        <v>806.3323907826023</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764755</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764755</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024154</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579275</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26506,10 @@
         <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319848</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764751</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>111748.4058346755</v>
       </c>
       <c r="C6" t="n">
-        <v>253939.7064943856</v>
+        <v>221991.0424012551</v>
       </c>
       <c r="D6" t="n">
-        <v>253939.7064943856</v>
+        <v>283288.0615713763</v>
       </c>
       <c r="E6" t="n">
-        <v>146323.461753655</v>
+        <v>213268.9211666095</v>
       </c>
       <c r="F6" t="n">
-        <v>380678.4837756925</v>
+        <v>395624.0303876593</v>
       </c>
       <c r="G6" t="n">
-        <v>379354.443266576</v>
+        <v>395624.0303876593</v>
       </c>
       <c r="H6" t="n">
-        <v>383244.4997470764</v>
+        <v>395624.0303876593</v>
       </c>
       <c r="I6" t="n">
-        <v>395647.2547270413</v>
+        <v>395624.0303876593</v>
       </c>
       <c r="J6" t="n">
-        <v>284632.7893820528</v>
+        <v>284609.5650426691</v>
       </c>
       <c r="K6" t="n">
-        <v>395647.2547270419</v>
+        <v>342578.1757488869</v>
       </c>
       <c r="L6" t="n">
-        <v>395647.2547270419</v>
+        <v>386231.7286610368</v>
       </c>
       <c r="M6" t="n">
-        <v>200046.0754439741</v>
+        <v>243423.8594496716</v>
       </c>
       <c r="N6" t="n">
-        <v>395647.2547270419</v>
+        <v>395624.0303876593</v>
       </c>
       <c r="O6" t="n">
-        <v>390642.08419331</v>
+        <v>395624.0303876593</v>
       </c>
       <c r="P6" t="n">
-        <v>380678.4837756924</v>
+        <v>395624.0303876592</v>
       </c>
     </row>
   </sheetData>
@@ -26790,25 +26790,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267131</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
-        <v>1278.260503384749</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="J4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631554</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938357</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319094</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811761477</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3.865352482534945e-12</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201005</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938355</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939388</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938357</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319094</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811761477</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>72.71868052833497</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>111.1117530257921</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27436,16 +27436,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27555,7 +27555,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>46.51158435110497</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>51.58631836451698</v>
       </c>
     </row>
     <row r="5">
@@ -27619,13 +27619,13 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>65.46385107113969</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>147.7602269278011</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27774,19 +27774,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>11.25323832560895</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>29.16509035322201</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>101.3319306324442</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>367.6387245651731</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>2.446659489829727</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>72.78996144619879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28548,7 +28548,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>3.817562007254101e-12</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-6.439667049203219e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>-1.620719558559358e-11</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34714,7 +34714,7 @@
         <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34772,10 +34772,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,7 +34784,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34863,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>52.91495433479339</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34942,22 +34942,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,13 +35009,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>358.7510985324825</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>130.5917045986984</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>296.5687363523682</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35188,10 +35188,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,10 +35246,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>150.1941962971705</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35413,7 +35413,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M11" t="n">
         <v>1168.735187081365</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>103.329001379142</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645618</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1101.201496790753</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35811,7 +35811,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35887,7 +35887,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>23.90188069171788</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36361,7 +36361,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463286</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36522,7 +36522,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>205.9191540463125</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36835,7 +36835,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>928.8008214318197</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36850,10 +36850,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>-2.647518703460994e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36999,7 +36999,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512943</v>
@@ -37072,7 +37072,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37081,16 +37081,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>832.9621348837863</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37236,7 +37236,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512943</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>288.735183296506</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37783,7 +37783,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>114.483583063981</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37941,7 +37941,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38035,7 +38035,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>484.4852854251358</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>170.862691669754</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
